--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474063.518060709</v>
+        <v>470498.0161871592</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10901535.83250029</v>
+        <v>10897995.95615778</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>218.7698104371394</v>
+        <v>122.43608537398</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>132.3187953056037</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.6217034654811</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>84.66536050598168</v>
+        <v>273.0891598015558</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>203.0747586157667</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>95.9578723584239</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579062</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968084</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828943</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>142.5210339138395</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>221.1397834290891</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.4934712142245</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>319.8444572927809</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>40.78297506860674</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>73.06783129321349</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>171.1886243209714</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,13 +1664,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>234.8656199178706</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>149.8276817095398</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>93.16084888546186</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838866</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828878</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161063</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696762</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043171</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459951</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643924</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931835</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908561</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147775</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804979</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922172</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367764</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920496</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697378</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412926</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875578</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927757</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059325</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880403</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908643</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092616</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380527</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357254</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596467</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253672</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708645</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369188</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.001891997864</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117998</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593883</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.552853376774</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222167</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354853</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572947</v>
+        <v>1572.340732912004</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>2012.380333804332</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523735</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958334</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V2" t="n">
-        <v>1270.043562456173</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>1270.043562456173</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.043562456173</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>873.552853376774</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>158.7695259828341</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811473</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875477</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875477</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675951</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.8616425347859</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="U4" t="n">
-        <v>296.9859907520096</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>296.9859907520096</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="W4" t="n">
-        <v>296.9859907520096</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="X4" t="n">
-        <v>296.9859907520096</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>611.96532200378</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="C5" t="n">
-        <v>611.96532200378</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>611.96532200378</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>611.96532200378</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073922</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572947</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572947</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398917</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102436</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070723</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="X5" t="n">
-        <v>611.96532200378</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="Y5" t="n">
-        <v>611.96532200378</v>
+        <v>1537.649747726258</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813152</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414074</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127955</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.435512522888</v>
+        <v>874.8450714282526</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591875</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.4075462870908</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>506.4075462870908</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4075462870908</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>506.4075462870908</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="U7" t="n">
-        <v>506.4075462870908</v>
+        <v>218.976341890575</v>
       </c>
       <c r="V7" t="n">
-        <v>506.4075462870908</v>
+        <v>218.976341890575</v>
       </c>
       <c r="W7" t="n">
-        <v>506.4075462870908</v>
+        <v>218.976341890575</v>
       </c>
       <c r="X7" t="n">
-        <v>506.4075462870908</v>
+        <v>218.976341890575</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.4075462870908</v>
+        <v>218.976341890575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1927.160845651305</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1533.985344154236</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.544215370903</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>745.9606904874479</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>733.1066560578297</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.655591362702</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.655591362702</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>399.450245395098</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>165.3699231780811</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653.037022769199</v>
+        <v>1435.837779556536</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.657796418323</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418323</v>
+        <v>800.8136995685217</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572336</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3020.609444585347</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2868.905117290958</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2868.905117290958</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2598.59458314067</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2299.391823255151</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>1981.735493334402</v>
+        <v>2087.611459508386</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.735493334402</v>
+        <v>1764.536250121739</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.3338606870974</v>
+        <v>103.3140520158397</v>
       </c>
       <c r="C13" t="n">
-        <v>135.9250178992805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>135.9250178992805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>135.9250178992805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9250178992805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>135.9250178992805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593277</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.60811892202</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236448</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245432</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628194</v>
+        <v>741.8597555915612</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401909</v>
+        <v>530.3256286689327</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693678</v>
+        <v>368.0415815981096</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322051</v>
+        <v>216.7257955609468</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.291089243226</v>
+        <v>1463.714265689664</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.91186289235</v>
+        <v>1142.335039338788</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>828.6901857016501</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550884</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312599</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654574</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654574</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2438.340323662383</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2120.683993741633</v>
+        <v>1788.408699622869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1795.989559808429</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.3326729474579</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9238301596411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083497</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,7 +5458,7 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>936.0428256245451</v>
       </c>
       <c r="V16" t="n">
-        <v>1149.68534223645</v>
+        <v>741.8597555915633</v>
       </c>
       <c r="W16" t="n">
-        <v>998.3442496005508</v>
+        <v>530.3256286689349</v>
       </c>
       <c r="X16" t="n">
-        <v>836.0602025297279</v>
+        <v>368.0415815981121</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.7444164925653</v>
+        <v>273.9397140370397</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411552</v>
@@ -5780,22 +5780,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1634.317313094942</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,7 +6218,7 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
@@ -6227,25 +6227,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938479</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107028</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
@@ -6263,10 +6263,10 @@
         <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118091</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755553</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
         <v>393.1040050097767</v>
@@ -6552,7 +6552,7 @@
         <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189319</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766601</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311924</v>
+        <v>682.8393851136181</v>
       </c>
       <c r="L32" t="n">
-        <v>1382.319247076792</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235817</v>
+        <v>1833.812697451711</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873279</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765608</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897129</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154194</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.43530700416</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210286</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965111</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918651</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237446</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612312</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546497</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.29939878346</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431885</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703945</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074069</v>
+        <v>225.4160927170939</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082771</v>
+        <v>389.5437325908937</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736115</v>
+        <v>575.8353109291577</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.583162631891</v>
+        <v>870.6770655353499</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673599</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450178</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746639</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308581</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420495</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518094</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.88095068936</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395489</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000914</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124394</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584475</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567349</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879441</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296521</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975457</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7661,37 +7661,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443167</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885605</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.403597936958</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218811</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634919</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588732</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072704</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462934</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7813,7 +7813,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
@@ -7825,31 +7825,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918825</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161919</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194244</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330104</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984018</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974534</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>423.8876955505237</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.717612910206</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463309929</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679532</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>312.6161996011349</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>300.2068661913374</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837484</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>333.3136109036484</v>
+        <v>132.572241649815</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2818744604613</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>290.9809095353983</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,25 +9006,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9176,7 +9176,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P17" t="n">
         <v>502.0059847475129</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,13 +9252,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9492,10 +9492,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10200,10 +10200,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.276635899403507</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>1.603032301092112</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133206</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H13" t="n">
-        <v>9.777621840175527</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189175</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>61.34511236879288</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>59.5911039438624</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929132921</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>948845.8820470168</v>
+        <v>947041.2392057359</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>948845.8820470168</v>
+        <v>947041.2392057359</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858284.972732503</v>
+        <v>858284.9727325029</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858284.972732503</v>
+        <v>858284.9727325032</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>378697.5739960494</v>
       </c>
       <c r="C2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960493</v>
       </c>
       <c r="D2" t="n">
-        <v>378697.5739960495</v>
+        <v>378697.5739960493</v>
       </c>
       <c r="E2" t="n">
         <v>334653.9491912411</v>
@@ -26326,10 +26326,10 @@
         <v>334653.9491912411</v>
       </c>
       <c r="G2" t="n">
+        <v>378697.5739960492</v>
+      </c>
+      <c r="H2" t="n">
         <v>378697.5739960495</v>
-      </c>
-      <c r="H2" t="n">
-        <v>378697.5739960494</v>
       </c>
       <c r="I2" t="n">
         <v>378697.5739960491</v>
@@ -26341,13 +26341,13 @@
         <v>378697.5739960495</v>
       </c>
       <c r="L2" t="n">
+        <v>378697.5739960488</v>
+      </c>
+      <c r="M2" t="n">
         <v>378697.5739960491</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>378697.5739960492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>378697.5739960491</v>
       </c>
       <c r="O2" t="n">
         <v>378697.5739960492</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488217</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.253476678</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
         <v>199269.1699682603</v>
@@ -26439,16 +26439,16 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
+        <v>200019.6624326435</v>
+      </c>
+      <c r="K4" t="n">
         <v>200019.6624326434</v>
       </c>
-      <c r="K4" t="n">
-        <v>200019.6624326435</v>
-      </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
         <v>199269.1699682603</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551965</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102615.9880496994</v>
+        <v>-97662.99462164441</v>
       </c>
       <c r="C6" t="n">
-        <v>79588.96024215623</v>
+        <v>76195.66241241049</v>
       </c>
       <c r="D6" t="n">
-        <v>71268.11985658677</v>
+        <v>63531.83063319497</v>
       </c>
       <c r="E6" t="n">
-        <v>17835.11454067787</v>
+        <v>17625.38299398846</v>
       </c>
       <c r="F6" t="n">
-        <v>129957.6760147224</v>
+        <v>129747.9444680327</v>
       </c>
       <c r="G6" t="n">
-        <v>73833.30917558764</v>
+        <v>73833.30917558732</v>
       </c>
       <c r="H6" t="n">
-        <v>121258.6347122694</v>
+        <v>121258.6347122695</v>
       </c>
       <c r="I6" t="n">
         <v>121258.6347122692</v>
       </c>
       <c r="J6" t="n">
-        <v>-91783.28288501597</v>
+        <v>-85266.9977304427</v>
       </c>
       <c r="K6" t="n">
-        <v>115018.8663094865</v>
+        <v>115018.8663094864</v>
       </c>
       <c r="L6" t="n">
-        <v>59836.27737486489</v>
+        <v>55787.44016439254</v>
       </c>
       <c r="M6" t="n">
-        <v>79057.80525264633</v>
+        <v>78006.11024145797</v>
       </c>
       <c r="N6" t="n">
-        <v>121258.634712269</v>
+        <v>121258.6347122692</v>
       </c>
       <c r="O6" t="n">
-        <v>93490.94066949803</v>
+        <v>93490.94066949806</v>
       </c>
       <c r="P6" t="n">
-        <v>121258.6347122692</v>
+        <v>121258.6347122693</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,16 +26707,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.489096301444</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551319</v>
+        <v>17.58004954287426</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>119.9159307663774</v>
+        <v>216.2496558295368</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>17.95957579094798</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.89937128976675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.9190433345364</v>
+        <v>9.495244038962312</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>186.168987866332</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>316.7676217268981</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682827</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627223</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493996</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>13.23164152531726</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>187.8913445277877</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082788</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28983,10 +28983,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599442</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901169</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901181</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738832813</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159647</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000712</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000712</v>
+        <v>76.79385455031004</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861253592</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.63600263453057</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30402,17 +30402,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>28.01250026485211</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082802</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>274.1626439527965</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928082</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299765948</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864132</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>162.8911480034076</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>155.7081677729452</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344365</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>247.9414980494817</v>
+        <v>47.20012879564833</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>198.2933506465095</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,13 +35972,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>249.3850182462369</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36212,10 +36212,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.258967987774</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004798</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,13 +36838,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101033</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261601</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318508</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682821</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394196</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765076</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791208</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868811</v>
+        <v>159.45551223712</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220912</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.37649167503</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.1712326226884</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873225</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516621</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094876</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457882</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634531391</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
